--- a/test case report.xlsx
+++ b/test case report.xlsx
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
